--- a/Trainings/Tempo3x20/intervals.xlsx
+++ b/Trainings/Tempo3x20/intervals.xlsx
@@ -597,7 +597,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z2</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z2</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z3</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z5</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z4</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z3</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z3</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z3</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z3</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z3</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z3</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z3</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z3</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z3</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z3</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z3</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z3</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
